--- a/biology/Botanique/Comtesse_de_Cassagne/Comtesse_de_Cassagne.xlsx
+++ b/biology/Botanique/Comtesse_de_Cassagne/Comtesse_de_Cassagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Comtesse de Cassagne' est un cultivar de rosier hybride de thé obtenu par le rosiériste français Pierre Guillot et que sa veuve commercialise en 1919[1],[2].
+'Comtesse de Cassagne' est un cultivar de rosier hybride de thé obtenu par le rosiériste français Pierre Guillot et que sa veuve commercialise en 1919,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Comtesse de Cassagne' est une rose moderne de jardin du groupe hybrides de thé[3]. Son buisson peut s'élever jusqu'à 1,50 de hauteur  et s'étendre à 90 cm de largeur. Ses feuilles sont vert clair et semi brillantes[1]. Ses fleurs doubles diploïdes très parfumées sont d'une couleur rose délicate avec un fin reflet jaune pâle ; elles mesurent 4,5" de diamètre et présentent 26 à 30 pétales. La floraison maximale a lieu à la fin du printemps avec des remontées dispersées par la suite[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Comtesse de Cassagne' est une rose moderne de jardin du groupe hybrides de thé. Son buisson peut s'élever jusqu'à 1,50 de hauteur  et s'étendre à 90 cm de largeur. Ses feuilles sont vert clair et semi brillantes. Ses fleurs doubles diploïdes très parfumées sont d'une couleur rose délicate avec un fin reflet jaune pâle ; elles mesurent 4,5" de diamètre et présentent 26 à 30 pétales. La floraison maximale a lieu à la fin du printemps avec des remontées dispersées par la suite,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une fleur qui tolère la mi-ombre, mais qui se sent mieux au soleil. Trop d'humidité risque de lui donner la maladie des taches noires[5]. Sa zone de rusticité est de 6b à 9b[1],[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une fleur qui tolère la mi-ombre, mais qui se sent mieux au soleil. Trop d'humidité risque de lui donner la maladie des taches noires. Sa zone de rusticité est de 6b à 9b,. 
 Elle est parfaite pour les jardins ou les fleurs coupées. Avant le printemps, il faut couper les branches mortes ou malades. Dans les zones à climat méditerranéen, il faut couper le buisson d'un tiers à la fin de l'hiver ; en climat froid il faut protéger le pied.
 </t>
         </is>
